--- a/Datos/Database by set/Set with text box/Xlsx sets/Apocalypse Promos (PAPC).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Apocalypse Promos (PAPC).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,42 +444,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>फंगल्शम्ब्लर्</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>{4}{B}{G}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>भूतम् पशु</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>म्रदितुम्</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>यहा फंगल्शम्ब्लहार्निमरये प्रहरति तदा पत्रं कषर्शि च सो'रिरपास्यति पत्रं करात् तस्य तस्य वा ।।</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6/4</t>
+          <t>('फंगल्शम्ब्लर्', ['{4}{B}{G}{U}', 'भूतम् पशु', 'म्रदितुम्', "यहा फंगल्शम्ब्लहार्निमरये प्रहरति तदा पत्रं कषर्शि च सो'रिरपास्यति पत्रं करात् तस्य तस्य वा ।।", '6/4'])</t>
         </is>
       </c>
     </row>
